--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc205_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc205_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3876" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +443,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +490,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +674,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +721,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +767,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +905,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +952,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1083,10 +1107,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1130,28 +1154,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1176,28 +1200,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1285,10 +1309,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1332,28 +1356,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1378,28 +1402,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1487,10 +1511,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1534,28 +1558,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1580,28 +1604,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1718,10 +1742,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1765,28 +1789,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1811,28 +1835,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1920,10 +1944,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1967,28 +1991,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2013,28 +2037,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2238,10 +2262,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2285,28 +2309,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2331,28 +2355,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2498,10 +2522,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2545,28 +2569,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2591,28 +2615,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2729,10 +2753,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2776,28 +2800,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2822,28 +2846,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2931,10 +2955,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2978,28 +3002,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3024,28 +3048,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3133,10 +3157,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3180,28 +3204,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3226,28 +3250,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3364,10 +3388,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3411,28 +3435,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3457,28 +3481,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3566,10 +3590,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3613,28 +3637,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3659,28 +3683,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3768,10 +3792,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3815,28 +3839,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3861,28 +3885,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3970,10 +3994,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4017,28 +4041,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4063,28 +4087,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4230,10 +4254,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4277,28 +4301,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4323,28 +4347,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4490,10 +4514,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4537,28 +4561,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4583,28 +4607,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4692,10 +4716,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4739,28 +4763,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4785,28 +4809,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4894,10 +4918,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4941,28 +4965,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4987,28 +5011,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5183,10 +5207,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5230,28 +5254,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5276,28 +5300,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5414,10 +5438,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5461,28 +5485,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5507,28 +5531,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5674,10 +5698,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5721,28 +5745,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5767,28 +5791,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5934,10 +5958,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5981,28 +6005,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6027,28 +6051,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6165,10 +6189,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6212,28 +6236,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6258,28 +6282,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6367,10 +6391,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6414,28 +6438,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6460,28 +6484,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6569,10 +6593,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6616,28 +6640,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6662,28 +6686,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6800,10 +6824,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6847,28 +6871,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6893,28 +6917,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7089,10 +7113,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7136,28 +7160,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7182,28 +7206,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7320,10 +7344,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7367,28 +7391,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7413,28 +7437,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7551,10 +7575,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="2" t="s">
+      <c r="J257" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7598,28 +7622,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
+      <c r="A259" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="2">
+      <c r="C259" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7644,28 +7668,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="2">
+      <c r="C261" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="2">
+      <c r="D261" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="2">
+      <c r="I261" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7753,10 +7777,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7800,28 +7824,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7846,28 +7870,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7926,10 +7950,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7973,28 +7997,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8019,28 +8043,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8099,10 +8123,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
